--- a/public/UUT-BUS.xlsx
+++ b/public/UUT-BUS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t xml:space="preserve">دانشکده</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">ایثار</t>
   </si>
   <si>
-    <t xml:space="preserve">شهریار</t>
+    <t xml:space="preserve">جهتلو (شهریار)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دانشگاه (شهریار)</t>
   </si>
   <si>
     <t xml:space="preserve">رازی</t>
@@ -298,6 +301,77 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">روزهای شنبه، یکشنبه</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">برنامه سرویس تربیت بدنی خانم‌ها</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">روزهای شنبه، یکشنبه</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">خوابگاه شهریار همان خوابگاه احداثی در جهتلو است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
@@ -351,7 +425,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +454,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -632,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.78515625" defaultRowHeight="19.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,31 +738,31 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -690,25 +770,25 @@
         <v>0.302083333333333</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0.302083333333333</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0.302083333333333</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0.770833333333333</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0.333333333333333</v>
@@ -752,7 +832,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0.5</v>
@@ -796,7 +876,7 @@
         <v>0.885416666666667</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0.645833333333333</v>
@@ -837,10 +917,10 @@
         <v>0.479166666666667</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0.75</v>
@@ -849,10 +929,16 @@
         <v>0.770833333333333</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -875,13 +961,13 @@
         <v>0.534722222222222</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>0.833333333333333</v>
@@ -907,13 +993,13 @@
         <v>0.618055555555556</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>0.885416666666667</v>
@@ -927,13 +1013,13 @@
         <v>0.604166666666667</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0.739583333333333</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.666666666666667</v>
@@ -947,7 +1033,7 @@
         <v>0.645833333333333</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0.739583333333333</v>
@@ -960,10 +1046,16 @@
       <c r="B10" s="3" t="n">
         <v>0.677083333333333</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.697916666666667</v>
@@ -971,7 +1063,7 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.739583333333333</v>
@@ -979,7 +1071,7 @@
     </row>
     <row r="13" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
